--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,11 +17,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,70 +37,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish34509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲烷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纤维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sand20932</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silicon92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbon480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip94024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iron83420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsFood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nukemiss55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>坦克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,18 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deuter3501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tank23532</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,14 +73,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>methane74</t>
+    <t>energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterdrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强子动能水滴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -467,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -480,35 +429,35 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -516,10 +465,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -527,101 +476,35 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -635,5 +518,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -15,9 +15,9 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,50 +37,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsFood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直升机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank23532</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopper424</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship40342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iron</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,7 +53,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强子动能水滴</t>
+    <t>fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰炸机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反物质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,103 +408,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>210</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D13">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B1"/>
   <sortState ref="A2:E13">
     <sortCondition ref="A1"/>
   </sortState>

--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰炸机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激光炮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,13 +74,21 @@
   </si>
   <si>
     <t>反物质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,6 +65,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>战斗机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰炸机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>激光炮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,21 +82,13 @@
   </si>
   <si>
     <t>反物质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,14 +81,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御机</t>
+    <t>护卫机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>

--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\WarOfStarship\Client\assets\Csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WarOfStarship\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,13 +82,21 @@
   </si>
   <si>
     <t>护卫机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starlighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光粒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -470,6 +478,14 @@
       </c>
       <c r="B7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
